--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1218941.373869753</v>
+        <v>-1221800.213125851</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14246928.19456528</v>
+        <v>14246928.19456529</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>248.1080771615096</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>79.51149230610436</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>82.28312050039077</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>37.67871164033446</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>116.333732371032</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>21.81903463982235</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>82.26149194205914</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>244.8448976285503</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
-        <v>116.9725659584294</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>78.98131663216454</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>99.3090618974154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>99.85066550405992</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>258.463904346904</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>221.9664022393568</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>373.7902392984761</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7131605013378</v>
+        <v>411.7131605013377</v>
       </c>
       <c r="H8" t="n">
-        <v>302.7130465232155</v>
+        <v>302.7130465232154</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>72.08872174598488</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.222583384339</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.0584867467327</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.4229241411586</v>
       </c>
       <c r="H9" t="n">
-        <v>93.68655899720457</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.27095204830823</v>
+        <v>23.27095204830805</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>136.008998084582</v>
       </c>
       <c r="T9" t="n">
-        <v>126.6999541445076</v>
+        <v>192.4233910313751</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8150272768924</v>
+        <v>117.7691513026599</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3808186856714</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.028552149253</v>
+        <v>107.0285521492529</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.955888857578</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>56.54280753289686</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2312024107025</v>
       </c>
       <c r="V10" t="n">
-        <v>239.9048585310947</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349719</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446352662</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>9.694898626994931</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>184.1058368358719</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,10 +1667,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>74.20064764874294</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>134.35421652803</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>54.31367585848726</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>154.4892550148504</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91051008678096</v>
+        <v>13.74238375877706</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
-        <v>83.53432244437134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352493</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.8162363079209</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079209</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="D2" t="n">
-        <v>300.4385797407429</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="E2" t="n">
-        <v>34.06092317356495</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>817.4304556629811</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>817.4304556629811</v>
+        <v>900.5447187946892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.2435858248423</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>355.7905565437153</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>355.7905565437153</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>196.5531015382598</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>196.5531015382598</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>59.15641508732702</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
         <v>242.5255548298714</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098642</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>906.2192216098642</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>906.2192216098642</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="X3" t="n">
-        <v>906.2192216098642</v>
+        <v>363.7654767013155</v>
       </c>
       <c r="Y3" t="n">
-        <v>698.4589228449104</v>
+        <v>363.7654767013155</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.1002068716687</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="C4" t="n">
-        <v>353.1640239437618</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="D4" t="n">
-        <v>353.1640239437618</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="E4" t="n">
-        <v>205.2509303613687</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="F4" t="n">
-        <v>58.3609828634583</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>58.3609828634583</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>58.3609828634583</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
@@ -4501,7 +4501,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="V4" t="n">
-        <v>788.4778634388466</v>
+        <v>405.0008470676429</v>
       </c>
       <c r="W4" t="n">
-        <v>522.1002068716687</v>
+        <v>405.0008470676429</v>
       </c>
       <c r="X4" t="n">
-        <v>522.1002068716687</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="Y4" t="n">
-        <v>522.1002068716687</v>
+        <v>321.9084309645528</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388467</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044907</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052542</v>
@@ -4574,13 +4574,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4598,19 +4598,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>574.4307792790805</v>
+        <v>541.1948062212341</v>
       </c>
       <c r="C6" t="n">
-        <v>574.4307792790805</v>
+        <v>461.415698511977</v>
       </c>
       <c r="D6" t="n">
-        <v>425.4963696178293</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="E6" t="n">
-        <v>266.2589146123738</v>
+        <v>312.4812888507257</v>
       </c>
       <c r="F6" t="n">
         <v>165.9467308776107</v>
@@ -4644,52 +4644,52 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="W6" t="n">
-        <v>782.2822794846134</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="X6" t="n">
-        <v>574.4307792790805</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="Y6" t="n">
-        <v>574.4307792790805</v>
+        <v>709.4101432413021</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>622.5994491745504</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="C7" t="n">
-        <v>453.6632662466435</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="D7" t="n">
-        <v>453.6632662466435</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="E7" t="n">
-        <v>305.7501726642504</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="F7" t="n">
-        <v>305.7501726642504</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="G7" t="n">
-        <v>137.1808120192538</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H7" t="n">
-        <v>137.1808120192538</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434482</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745504</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U7" t="n">
-        <v>622.5994491745504</v>
+        <v>568.3118329085805</v>
       </c>
       <c r="V7" t="n">
-        <v>622.5994491745504</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="W7" t="n">
-        <v>622.5994491745504</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="X7" t="n">
-        <v>622.5994491745504</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="Y7" t="n">
-        <v>622.5994491745504</v>
+        <v>313.6273447026937</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1385.796741656712</v>
+        <v>1605.025542730846</v>
       </c>
       <c r="C8" t="n">
-        <v>1385.796741656712</v>
+        <v>1605.025542730846</v>
       </c>
       <c r="D8" t="n">
-        <v>1161.58825454625</v>
+        <v>1605.025542730846</v>
       </c>
       <c r="E8" t="n">
-        <v>775.8000019480061</v>
+        <v>1219.237290132602</v>
       </c>
       <c r="F8" t="n">
-        <v>768.8545011988026</v>
+        <v>841.6713918513128</v>
       </c>
       <c r="G8" t="n">
-        <v>352.982621904522</v>
+        <v>425.7995125570322</v>
       </c>
       <c r="H8" t="n">
-        <v>47.211867840668</v>
+        <v>120.0287584931782</v>
       </c>
       <c r="I8" t="n">
-        <v>47.211867840668</v>
+        <v>47.21186784066825</v>
       </c>
       <c r="J8" t="n">
-        <v>169.5906758132799</v>
+        <v>169.5906758132812</v>
       </c>
       <c r="K8" t="n">
-        <v>403.7433037768799</v>
+        <v>403.7433037768827</v>
       </c>
       <c r="L8" t="n">
-        <v>731.1321058153621</v>
+        <v>731.1321058153669</v>
       </c>
       <c r="M8" t="n">
-        <v>1127.084666596059</v>
+        <v>1127.084666596065</v>
       </c>
       <c r="N8" t="n">
-        <v>1534.057962144678</v>
+        <v>1534.057962144686</v>
       </c>
       <c r="O8" t="n">
-        <v>1905.016043479814</v>
+        <v>1905.016043479824</v>
       </c>
       <c r="P8" t="n">
-        <v>2187.119182621864</v>
+        <v>2187.119182621875</v>
       </c>
       <c r="Q8" t="n">
-        <v>2350.794145047375</v>
+        <v>2350.794145047387</v>
       </c>
       <c r="R8" t="n">
-        <v>2360.5933920334</v>
+        <v>2360.593392033413</v>
       </c>
       <c r="S8" t="n">
-        <v>2360.5933920334</v>
+        <v>2232.085732049232</v>
       </c>
       <c r="T8" t="n">
-        <v>2360.5933920334</v>
+        <v>2232.085732049232</v>
       </c>
       <c r="U8" t="n">
-        <v>2106.998960976094</v>
+        <v>1978.491300991926</v>
       </c>
       <c r="V8" t="n">
-        <v>1775.936073632523</v>
+        <v>1978.491300991926</v>
       </c>
       <c r="W8" t="n">
-        <v>1775.936073632523</v>
+        <v>1978.491300991926</v>
       </c>
       <c r="X8" t="n">
-        <v>1775.936073632523</v>
+        <v>1605.025542730846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1385.796741656712</v>
+        <v>1605.025542730846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3010522734061</v>
+        <v>836.668164397442</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8480229922791</v>
+        <v>662.215135116315</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9136133310278</v>
+        <v>513.2807254550637</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6761583255724</v>
+        <v>354.0432704496081</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1416003524573</v>
+        <v>207.5087124764931</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3507678866405</v>
+        <v>70.71788001067638</v>
       </c>
       <c r="H9" t="n">
-        <v>70.71788001067631</v>
+        <v>70.71788001067638</v>
       </c>
       <c r="I9" t="n">
-        <v>47.211867840668</v>
+        <v>47.21186784066825</v>
       </c>
       <c r="J9" t="n">
-        <v>226.1121255204023</v>
+        <v>226.1121255204031</v>
       </c>
       <c r="K9" t="n">
-        <v>658.5020038236798</v>
+        <v>658.5020038236814</v>
       </c>
       <c r="L9" t="n">
-        <v>934.1760098640536</v>
+        <v>934.1760098640564</v>
       </c>
       <c r="M9" t="n">
-        <v>1275.231440382596</v>
+        <v>1275.231440382601</v>
       </c>
       <c r="N9" t="n">
-        <v>1639.722238220606</v>
+        <v>1639.722238220611</v>
       </c>
       <c r="O9" t="n">
-        <v>1950.940313986323</v>
+        <v>1950.940313986329</v>
       </c>
       <c r="P9" t="n">
-        <v>2256.464953989684</v>
+        <v>2181.387191015266</v>
       </c>
       <c r="Q9" t="n">
-        <v>2360.5933920334</v>
+        <v>2360.593392033413</v>
       </c>
       <c r="R9" t="n">
-        <v>2360.5933920334</v>
+        <v>2360.593392033413</v>
       </c>
       <c r="S9" t="n">
-        <v>2360.5933920334</v>
+        <v>2223.21056568535</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.613640372281</v>
+        <v>2028.843504037496</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.517653223905</v>
+        <v>1909.884765347941</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.365544992162</v>
+        <v>1674.732657116198</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.128188263961</v>
+        <v>1420.495300387997</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.276688058428</v>
+        <v>1212.643800182464</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.516389293474</v>
+        <v>1004.88350141751</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>618.1859905724103</v>
+        <v>471.2960430745001</v>
       </c>
       <c r="C10" t="n">
-        <v>618.1859905724103</v>
+        <v>471.2960430745001</v>
       </c>
       <c r="D10" t="n">
-        <v>618.1859905724103</v>
+        <v>471.2960430745001</v>
       </c>
       <c r="E10" t="n">
-        <v>470.2728969900172</v>
+        <v>323.3829494921069</v>
       </c>
       <c r="F10" t="n">
-        <v>323.3829494921068</v>
+        <v>323.3829494921069</v>
       </c>
       <c r="G10" t="n">
-        <v>155.3215164762771</v>
+        <v>155.3215164762773</v>
       </c>
       <c r="H10" t="n">
-        <v>155.3215164762771</v>
+        <v>155.3215164762773</v>
       </c>
       <c r="I10" t="n">
-        <v>47.211867840668</v>
+        <v>47.21186784066825</v>
       </c>
       <c r="J10" t="n">
-        <v>67.48625549556739</v>
+        <v>67.48625549556796</v>
       </c>
       <c r="K10" t="n">
-        <v>230.6401391719451</v>
+        <v>230.6401391719461</v>
       </c>
       <c r="L10" t="n">
-        <v>494.9473729645379</v>
+        <v>494.9473729645397</v>
       </c>
       <c r="M10" t="n">
-        <v>784.0114154846115</v>
+        <v>784.011415484614</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.636777585314</v>
+        <v>1071.636777585317</v>
       </c>
       <c r="O10" t="n">
-        <v>1321.289057484694</v>
+        <v>1321.289057484698</v>
       </c>
       <c r="P10" t="n">
-        <v>1511.389029473805</v>
+        <v>1511.38902947381</v>
       </c>
       <c r="Q10" t="n">
-        <v>1559.569316268027</v>
+        <v>1559.569316268032</v>
       </c>
       <c r="R10" t="n">
-        <v>1559.569316268027</v>
+        <v>1559.569316268032</v>
       </c>
       <c r="S10" t="n">
-        <v>1559.569316268027</v>
+        <v>1361.634074997751</v>
       </c>
       <c r="T10" t="n">
-        <v>1559.569316268027</v>
+        <v>1304.520127994825</v>
       </c>
       <c r="U10" t="n">
-        <v>1559.569316268027</v>
+        <v>1015.397701317347</v>
       </c>
       <c r="V10" t="n">
-        <v>1317.241176337628</v>
+        <v>760.7132131114606</v>
       </c>
       <c r="W10" t="n">
-        <v>1027.824006300667</v>
+        <v>471.2960430745001</v>
       </c>
       <c r="X10" t="n">
-        <v>799.8344554026501</v>
+        <v>471.2960430745001</v>
       </c>
       <c r="Y10" t="n">
-        <v>799.8344554026501</v>
+        <v>471.2960430745001</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
         <v>1204.208000760437</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608048</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>301.0525042748309</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>791.784837118582</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M12" t="n">
-        <v>1383.80319137071</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N12" t="n">
-        <v>2005.899154770046</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.5125670724609</v>
+        <v>848.5402036081963</v>
       </c>
       <c r="C13" t="n">
-        <v>787.576384144554</v>
+        <v>679.6040206802894</v>
       </c>
       <c r="D13" t="n">
-        <v>637.4597447322183</v>
+        <v>529.4873812679537</v>
       </c>
       <c r="E13" t="n">
-        <v>489.5466511498252</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>342.6567036519148</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4425088264937</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T13" t="n">
-        <v>2140.83764708305</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.044820187095</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.360331981209</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.943161944248</v>
+        <v>1478.970798479983</v>
       </c>
       <c r="X13" t="n">
-        <v>1358.953611046231</v>
+        <v>1250.981247581966</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.161031902701</v>
+        <v>1030.188668438436</v>
       </c>
     </row>
     <row r="14">
@@ -5270,52 +5270,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.644273983533</v>
+        <v>802.9288273958721</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>633.9926444679652</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>483.8760050556294</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>335.9629114732363</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>335.9629114732363</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>168.7668121881163</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782976</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038364</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580263</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2311.25175375397</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>2022.176527098168</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V16" t="n">
-        <v>1767.492038892281</v>
+        <v>1722.77659230462</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.07486885532</v>
+        <v>1433.359422267659</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.085317957303</v>
+        <v>1205.369871369642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813773</v>
+        <v>984.5772922261118</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.708435085168</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572612</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449254</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199803</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993916</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956955</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058938</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154078</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,52 +5975,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.550723916711</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1893.082977031346</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1638.398488825459</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1348.981318788498</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.991767890481</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>900.1991887469508</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,19 +6473,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492579</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6598,70 +6598,70 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
         <v>753.3092412490405</v>
@@ -6680,19 +6680,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6856,16 +6856,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6874,10 +6874,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7026,7 +7026,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,19 +7090,19 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,19 +7154,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,19 +7187,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954156</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380735</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979287</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,28 +7421,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,34 +7567,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7640,43 +7640,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,40 +7801,40 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127221</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>75.83612421659228</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>75.8361242165966</v>
       </c>
       <c r="R9" t="n">
-        <v>26.43426352462882</v>
+        <v>26.43426352462849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134.625764501971</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>327.3645534356071</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>73.96313205971533</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.29152613728991</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613729303</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>276.4905529214255</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>102.4171615007191</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.09406519748094</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>83.05123379925823</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>92.12028678808191</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>131.6952193743938</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405073</v>
+        <v>203.6630665685112</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
-        <v>202.6501519448728</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>105.8542358274168</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="32">
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-4.936792993024105e-14</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1232015.923293157</v>
+        <v>1232015.923293158</v>
       </c>
     </row>
     <row r="6">
@@ -26317,19 +26317,19 @@
         <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>180602.948618557</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302515</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302514</v>
@@ -26338,19 +26338,19 @@
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302515</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340213.3253972754</v>
+        <v>340213.3253972785</v>
       </c>
       <c r="E3" t="n">
-        <v>543878.410478282</v>
+        <v>543878.4104782797</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504196</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>102045.3439359519</v>
+        <v>102045.3439359527</v>
       </c>
       <c r="M3" t="n">
-        <v>142045.5180133292</v>
+        <v>142045.5180133286</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704952</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>150139.3612680858</v>
+        <v>150139.3612680849</v>
       </c>
       <c r="E4" t="n">
-        <v>8720.723770518931</v>
+        <v>8720.723770518933</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744304</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744257</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744286</v>
       </c>
       <c r="L4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483777</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483769</v>
+        <v>16718.11565483778</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483772</v>
+        <v>16718.11565483775</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>88973.99831047701</v>
+        <v>88973.99831047727</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-757792.4941684186</v>
+        <v>-758141.4101140063</v>
       </c>
       <c r="C6" t="n">
         <v>-125961.9720271915</v>
       </c>
       <c r="D6" t="n">
-        <v>-394592.2867563743</v>
+        <v>-394592.2867563769</v>
       </c>
       <c r="E6" t="n">
-        <v>-472138.3141440824</v>
+        <v>-472184.2191396457</v>
       </c>
       <c r="F6" t="n">
-        <v>60305.93559955814</v>
+        <v>60271.19767412322</v>
       </c>
       <c r="G6" t="n">
-        <v>71758.19871459976</v>
+        <v>71723.4607891643</v>
       </c>
       <c r="H6" t="n">
-        <v>71758.19871460006</v>
+        <v>71723.46078916427</v>
       </c>
       <c r="I6" t="n">
-        <v>71758.19871460003</v>
+        <v>71723.4607891643</v>
       </c>
       <c r="J6" t="n">
-        <v>2759.044295485874</v>
+        <v>2724.306370050151</v>
       </c>
       <c r="K6" t="n">
-        <v>71758.19871460006</v>
+        <v>71723.46078916435</v>
       </c>
       <c r="L6" t="n">
-        <v>-37193.17722524138</v>
+        <v>-37193.17722524222</v>
       </c>
       <c r="M6" t="n">
-        <v>-77193.3513026187</v>
+        <v>-77193.35130261815</v>
       </c>
       <c r="N6" t="n">
-        <v>61775.14935500566</v>
+        <v>61775.14935500571</v>
       </c>
       <c r="O6" t="n">
-        <v>64852.16671071055</v>
+        <v>64852.1667107105</v>
       </c>
       <c r="P6" t="n">
-        <v>64852.16671071052</v>
+        <v>64852.1667107105</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>892.9072821820796</v>
+        <v>892.9072821820821</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>590.14834800835</v>
+        <v>590.1483480083532</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>278.8522684126012</v>
+        <v>278.8522684126037</v>
       </c>
       <c r="E3" t="n">
-        <v>465.1337665343058</v>
+        <v>465.1337665343037</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>326.4344680068439</v>
+        <v>326.4344680068469</v>
       </c>
       <c r="E4" t="n">
-        <v>569.996942317656</v>
+        <v>569.9969423176537</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326.4344680068439</v>
+        <v>326.4344680068469</v>
       </c>
       <c r="M4" t="n">
-        <v>569.996942317656</v>
+        <v>569.9969423176537</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326.4344680068439</v>
+        <v>326.4344680068469</v>
       </c>
       <c r="M4" t="n">
-        <v>569.996942317656</v>
+        <v>569.9969423176537</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>138.3265835435079</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>287.4479801780783</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,16 +27464,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>61.80060863087528</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>89.43925283244546</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3315388849862</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27591,16 +27591,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>143.448163446978</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>137.8889440349303</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>295.8616086872806</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>93.7271823561512</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>45.76015049596847</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.29990802074862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>27.7947261557735</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>132.7166393813262</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>33.0858064432353</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>72.08872174598528</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.2225833843392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.3824761862336</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.68655899720453</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.0089980845821</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>65.72343688686745</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>108.0458759742325</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.8947123989307</v>
+        <v>104.8947123989305</v>
       </c>
       <c r="S10" t="n">
-        <v>195.9558888575781</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0658120081901</v>
+        <v>164.5230044752932</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2312024107025</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>12.2327847927333</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.589577013797302</v>
+        <v>3.589577013797312</v>
       </c>
       <c r="H8" t="n">
-        <v>36.76175559255163</v>
+        <v>36.76175559255174</v>
       </c>
       <c r="I8" t="n">
-        <v>138.3871678244206</v>
+        <v>138.387167824421</v>
       </c>
       <c r="J8" t="n">
-        <v>304.6608620747791</v>
+        <v>304.6608620747799</v>
       </c>
       <c r="K8" t="n">
-        <v>456.6076570688189</v>
+        <v>456.6076570688202</v>
       </c>
       <c r="L8" t="n">
-        <v>566.4621746048183</v>
+        <v>566.4621746048199</v>
       </c>
       <c r="M8" t="n">
-        <v>630.298314823936</v>
+        <v>630.2983148239377</v>
       </c>
       <c r="N8" t="n">
-        <v>640.4972005143876</v>
+        <v>640.4972005143894</v>
       </c>
       <c r="O8" t="n">
-        <v>604.8033440834407</v>
+        <v>604.8033440834423</v>
       </c>
       <c r="P8" t="n">
-        <v>516.1856615553197</v>
+        <v>516.1856615553212</v>
       </c>
       <c r="Q8" t="n">
-        <v>387.6339347487037</v>
+        <v>387.6339347487047</v>
       </c>
       <c r="R8" t="n">
-        <v>225.483767092945</v>
+        <v>225.4837670929456</v>
       </c>
       <c r="S8" t="n">
-        <v>81.79748620190611</v>
+        <v>81.79748620190634</v>
       </c>
       <c r="T8" t="n">
-        <v>15.7133733778977</v>
+        <v>15.71337337789774</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2871661611037841</v>
+        <v>0.2871661611037849</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92059302205202</v>
+        <v>1.920593022052026</v>
       </c>
       <c r="H9" t="n">
-        <v>18.54888523929188</v>
+        <v>18.54888523929193</v>
       </c>
       <c r="I9" t="n">
-        <v>66.12568080310685</v>
+        <v>66.12568080310703</v>
       </c>
       <c r="J9" t="n">
-        <v>181.4539223158885</v>
+        <v>181.453922315889</v>
       </c>
       <c r="K9" t="n">
-        <v>310.1336547933739</v>
+        <v>310.1336547933747</v>
       </c>
       <c r="L9" t="n">
-        <v>417.0129717398477</v>
+        <v>417.0129717398489</v>
       </c>
       <c r="M9" t="n">
-        <v>486.6344687892333</v>
+        <v>486.6344687892347</v>
       </c>
       <c r="N9" t="n">
-        <v>499.5142351520296</v>
+        <v>499.514235152031</v>
       </c>
       <c r="O9" t="n">
-        <v>456.9579371370875</v>
+        <v>456.9579371370887</v>
       </c>
       <c r="P9" t="n">
-        <v>366.749030675881</v>
+        <v>366.749030675882</v>
       </c>
       <c r="Q9" t="n">
-        <v>245.1620145342193</v>
+        <v>245.16201453422</v>
       </c>
       <c r="R9" t="n">
-        <v>119.2452404393351</v>
+        <v>119.2452404393355</v>
       </c>
       <c r="S9" t="n">
-        <v>35.6741730192557</v>
+        <v>35.6741730192558</v>
       </c>
       <c r="T9" t="n">
-        <v>7.741337663446518</v>
+        <v>7.741337663446539</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1263548040823698</v>
+        <v>0.1263548040823702</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.610160672787357</v>
+        <v>1.610160672787361</v>
       </c>
       <c r="H10" t="n">
-        <v>14.31579216350942</v>
+        <v>14.31579216350946</v>
       </c>
       <c r="I10" t="n">
-        <v>48.42192277800525</v>
+        <v>48.42192277800538</v>
       </c>
       <c r="J10" t="n">
-        <v>113.8383595660661</v>
+        <v>113.8383595660664</v>
       </c>
       <c r="K10" t="n">
-        <v>187.0713945292947</v>
+        <v>187.0713945292952</v>
       </c>
       <c r="L10" t="n">
-        <v>239.3869785705857</v>
+        <v>239.3869785705864</v>
       </c>
       <c r="M10" t="n">
-        <v>252.4000043715671</v>
+        <v>252.4000043715678</v>
       </c>
       <c r="N10" t="n">
-        <v>246.3984964093599</v>
+        <v>246.3984964093606</v>
       </c>
       <c r="O10" t="n">
-        <v>227.5888921863439</v>
+        <v>227.5888921863445</v>
       </c>
       <c r="P10" t="n">
-        <v>194.7416144614816</v>
+        <v>194.7416144614822</v>
       </c>
       <c r="Q10" t="n">
-        <v>134.828999609494</v>
+        <v>134.8289996094944</v>
       </c>
       <c r="R10" t="n">
-        <v>72.39867897823875</v>
+        <v>72.39867897823896</v>
       </c>
       <c r="S10" t="n">
-        <v>28.06070917939419</v>
+        <v>28.06070917939427</v>
       </c>
       <c r="T10" t="n">
-        <v>6.879777420091431</v>
+        <v>6.879777420091449</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08782694578840136</v>
+        <v>0.08782694578840161</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>348.1857632660261</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426203</v>
+        <v>394.0223077997498</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>541.2980521010957</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250132</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>123.6149575480928</v>
+        <v>123.6149575480936</v>
       </c>
       <c r="K8" t="n">
-        <v>236.5178060238384</v>
+        <v>236.5178060238397</v>
       </c>
       <c r="L8" t="n">
-        <v>330.6957596348311</v>
+        <v>330.6957596348327</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9520815966633</v>
+        <v>399.952081596665</v>
       </c>
       <c r="N8" t="n">
-        <v>411.0841369177967</v>
+        <v>411.0841369177985</v>
       </c>
       <c r="O8" t="n">
-        <v>374.705132661754</v>
+        <v>374.7051326617556</v>
       </c>
       <c r="P8" t="n">
-        <v>284.9526658000502</v>
+        <v>284.9526658000516</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.3282448742542</v>
+        <v>165.3282448742553</v>
       </c>
       <c r="R8" t="n">
-        <v>9.898229278812863</v>
+        <v>9.898229278813488</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>180.7073309896306</v>
+        <v>180.7073309896311</v>
       </c>
       <c r="K9" t="n">
-        <v>436.7574528315935</v>
+        <v>436.7574528315943</v>
       </c>
       <c r="L9" t="n">
-        <v>278.4585919599735</v>
+        <v>278.4585919599747</v>
       </c>
       <c r="M9" t="n">
-        <v>344.500434867215</v>
+        <v>344.5004348672164</v>
       </c>
       <c r="N9" t="n">
-        <v>368.1725230686964</v>
+        <v>368.1725230686977</v>
       </c>
       <c r="O9" t="n">
-        <v>314.361692692643</v>
+        <v>314.3616926926443</v>
       </c>
       <c r="P9" t="n">
-        <v>308.610747478143</v>
+        <v>232.7746232615518</v>
       </c>
       <c r="Q9" t="n">
-        <v>105.1802404481978</v>
+        <v>181.0163646647951</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.47917944939333</v>
+        <v>20.47917944939364</v>
       </c>
       <c r="K10" t="n">
-        <v>164.8019027034118</v>
+        <v>164.8019027034123</v>
       </c>
       <c r="L10" t="n">
-        <v>266.9770038309019</v>
+        <v>266.9770038309026</v>
       </c>
       <c r="M10" t="n">
-        <v>291.9838813334077</v>
+        <v>291.9838813334084</v>
       </c>
       <c r="N10" t="n">
-        <v>290.5306687885885</v>
+        <v>290.5306687885892</v>
       </c>
       <c r="O10" t="n">
-        <v>252.1740201003836</v>
+        <v>252.1740201003842</v>
       </c>
       <c r="P10" t="n">
-        <v>192.0201737263751</v>
+        <v>192.0201737263757</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.66695635779963</v>
+        <v>48.6669563578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>210.3443242916671</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981759</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295531</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>407.3236446867654</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
